--- a/322619535b62/topics_comparison.xlsx
+++ b/322619535b62/topics_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\medium\322619535b62\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811A1F1A-61F8-4C7E-9066-F459C36B5CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B401F9E-F41A-402E-846A-359B847BAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10162" yWindow="180" windowWidth="11416" windowHeight="12458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11377" yWindow="0" windowWidth="10201" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>Aithal &amp; Ravindra (2011)</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Fiber Optics</t>
+  </si>
+  <si>
+    <t>Non-Destructive Testing</t>
+  </si>
+  <si>
+    <t>Ultrasonics</t>
+  </si>
+  <si>
+    <t>Holography</t>
+  </si>
+  <si>
+    <t>Crystal Structures</t>
+  </si>
+  <si>
+    <t>Crystal Defects</t>
   </si>
 </sst>
 </file>
@@ -469,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -652,55 +667,118 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">

--- a/322619535b62/topics_comparison.xlsx
+++ b/322619535b62/topics_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\medium\322619535b62\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B401F9E-F41A-402E-846A-359B847BAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7F724-525E-409A-A224-B1E85EC4F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11377" yWindow="0" windowWidth="10201" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="29">
   <si>
     <t>Aithal &amp; Ravindra (2011)</t>
   </si>
@@ -85,6 +85,33 @@
   </si>
   <si>
     <t>Crystal Defects</t>
+  </si>
+  <si>
+    <t>Modern Physics</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics</t>
+  </si>
+  <si>
+    <t>Nuclear Physics</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>Acoustics</t>
+  </si>
+  <si>
+    <t>Relativity</t>
+  </si>
+  <si>
+    <t>Thermal Physics</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Electron and Electronics</t>
   </si>
 </sst>
 </file>
@@ -163,7 +190,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
@@ -172,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,10 +216,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,6 +223,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,20 +558,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -552,18 +582,18 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -574,20 +604,20 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -598,20 +628,20 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -622,22 +652,22 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -648,18 +678,18 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -670,18 +700,18 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -692,20 +722,20 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -716,22 +746,22 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -742,22 +772,22 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -769,14 +799,14 @@
         <v>19</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1"/>
@@ -785,103 +815,211 @@
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="6">
+      <c r="H21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>